--- a/output_by_subject/CS355.xlsx
+++ b/output_by_subject/CS355.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2929,6 +2929,622 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1901CS34</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1901CS35</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1901CS40</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1901CS41</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1901CS42</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1901CS43</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1901CS44</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1901CS45</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1901CS49</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1901CS50</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1901CS52</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1901CS53</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1901CS58</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1901CS59</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1901CS61</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1901CS62</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1901CS66</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1901CS67</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1901CS68</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1901CS69</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1901CS70</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1901CS71</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1901CS72</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1901CS73</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1901CS74</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1901CS75</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1901CS78</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1901CS79</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CS355</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
